--- a/Science/目录表.xlsx
+++ b/Science/目录表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -265,9 +265,6 @@
     <t>The Graphics Rendering Pipeline</t>
   </si>
   <si>
-    <t> The Graphics Processing Unit</t>
-  </si>
-  <si>
     <t>Transforms</t>
   </si>
   <si>
@@ -295,24 +292,15 @@
     <t>Beyond Polygons</t>
   </si>
   <si>
-    <t> Volumetric and Translucency Rendering</t>
-  </si>
-  <si>
     <t>Non-Photorealistic Rendering</t>
   </si>
   <si>
     <t>Polygonal Techniques</t>
   </si>
   <si>
-    <t> Curves and Curved Surfaces</t>
-  </si>
-  <si>
     <t>Pipeline Optimization</t>
   </si>
   <si>
-    <t> Acceleration Algorithms</t>
-  </si>
-  <si>
     <t>Efficient Shading</t>
   </si>
   <si>
@@ -385,6 +373,22 @@
   </si>
   <si>
     <t>DIRECTX 12 3D游戏开发实战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Graphics Processing Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volumetric and Translucency Rendering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curves and Curved Surfaces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acceleration Algorithms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +474,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -512,7 +516,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -547,7 +551,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -759,20 +763,20 @@
   <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B117" sqref="B16:B117"/>
+      <selection activeCell="B16" sqref="B16:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="55.25" customWidth="1"/>
+    <col min="2" max="2" width="55.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -782,7 +786,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -792,7 +796,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -802,7 +806,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -812,7 +816,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -822,7 +826,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -832,7 +836,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -842,7 +846,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -852,7 +856,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -862,52 +866,57 @@
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -916,7 +925,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -925,7 +934,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -934,7 +943,7 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -943,7 +952,7 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -952,7 +961,7 @@
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -961,7 +970,7 @@
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -970,7 +979,7 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -979,133 +988,133 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -1116,7 +1125,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -1127,7 +1136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>3</v>
       </c>
@@ -1138,7 +1147,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4</v>
       </c>
@@ -1149,7 +1158,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
@@ -1160,7 +1169,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>6</v>
       </c>
@@ -1171,7 +1180,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>7</v>
       </c>
@@ -1182,7 +1191,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>8</v>
       </c>
@@ -1193,7 +1202,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>9</v>
       </c>
@@ -1204,7 +1213,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>10</v>
       </c>
@@ -1215,7 +1224,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>11</v>
       </c>
@@ -1226,7 +1235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>12</v>
       </c>
@@ -1237,7 +1246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>13</v>
       </c>
@@ -1248,7 +1257,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>14</v>
       </c>
@@ -1259,7 +1268,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>15</v>
       </c>
@@ -1270,7 +1279,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>16</v>
       </c>
@@ -1281,7 +1290,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>17</v>
       </c>
@@ -1292,7 +1301,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>18</v>
       </c>
@@ -1303,7 +1312,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>19</v>
       </c>
@@ -1314,7 +1323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>20</v>
       </c>
@@ -1325,7 +1334,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>21</v>
       </c>
@@ -1336,7 +1345,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>22</v>
       </c>
@@ -1347,7 +1356,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>23</v>
       </c>
@@ -1358,7 +1367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>24</v>
       </c>
@@ -1369,7 +1378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>25</v>
       </c>
@@ -1380,7 +1389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>26</v>
       </c>
@@ -1390,13 +1399,16 @@
       <c r="C65">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D65">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -1407,7 +1419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
@@ -1418,7 +1430,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3</v>
       </c>
@@ -1429,7 +1441,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4</v>
       </c>
@@ -1440,7 +1452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5</v>
       </c>
@@ -1451,7 +1463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>6</v>
       </c>
@@ -1462,7 +1474,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>7</v>
       </c>
@@ -1473,7 +1485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>8</v>
       </c>
@@ -1484,7 +1496,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>9</v>
       </c>
@@ -1495,7 +1507,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>10</v>
       </c>
@@ -1506,7 +1518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>11</v>
       </c>
@@ -1517,7 +1529,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>12</v>
       </c>
@@ -1528,7 +1540,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>13</v>
       </c>
@@ -1539,7 +1551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>14</v>
       </c>
@@ -1550,7 +1562,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>15</v>
       </c>
@@ -1561,7 +1573,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>16</v>
       </c>
@@ -1572,7 +1584,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>17</v>
       </c>
@@ -1583,7 +1595,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>18</v>
       </c>
@@ -1594,7 +1606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>19</v>
       </c>
@@ -1605,7 +1617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>20</v>
       </c>
@@ -1616,7 +1628,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>21</v>
       </c>
@@ -1627,7 +1639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>22</v>
       </c>
@@ -1638,7 +1650,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>23</v>
       </c>
@@ -1649,7 +1661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>24</v>
       </c>
@@ -1660,7 +1672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>25</v>
       </c>
@@ -1671,7 +1683,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>26</v>
       </c>
@@ -1681,13 +1693,16 @@
       <c r="C92">
         <v>36</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D92">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B93" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -1698,7 +1713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2</v>
       </c>
@@ -1709,95 +1724,95 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="C96">
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C97">
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C98">
         <v>64</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C99">
         <v>56</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>7</v>
       </c>
       <c r="B100" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C100">
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C101">
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C102">
         <v>82</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C103">
         <v>62</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>11</v>
       </c>
@@ -1808,147 +1823,150 @@
         <v>76</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>12</v>
       </c>
       <c r="B105" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C105">
         <v>32</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C106">
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>14</v>
       </c>
       <c r="B107" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C107">
         <v>62</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>15</v>
       </c>
       <c r="B108" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C108">
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>16</v>
       </c>
       <c r="B109" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C109">
         <v>36</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>17</v>
       </c>
       <c r="B110" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C110">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>18</v>
       </c>
       <c r="B111" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C111">
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>19</v>
       </c>
       <c r="B112" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="C112">
         <v>64</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C113">
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>21</v>
       </c>
       <c r="B114" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C114">
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>22</v>
       </c>
       <c r="B115" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C115">
         <v>48</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>23</v>
       </c>
       <c r="B116" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C116">
         <v>48</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>24</v>
       </c>
       <c r="B117" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C117">
         <v>9</v>
+      </c>
+      <c r="D117">
+        <v>1035</v>
       </c>
     </row>
   </sheetData>
@@ -1964,7 +1982,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1977,7 +1995,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
